--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C3166-435E-4CB7-9DA5-DE000EDCA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EF9AF-B2EA-4E77-9047-434A6351FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -468,6 +468,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="5:8">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
         <v>3</v>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EF9AF-B2EA-4E77-9047-434A6351FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0BB980-52F4-4F0E-AED6-3F497EDBFF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>cccccccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,7 +409,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -473,6 +477,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="5:8">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
         <v>3</v>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0BB980-52F4-4F0E-AED6-3F497EDBFF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB6902-3E23-42B5-B109-8A1D1841B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,7 +413,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -486,6 +490,9 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB6902-3E23-42B5-B109-8A1D1841B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1D5B0-5F1B-49D7-9EC4-B361001167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
@@ -494,6 +494,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="5:8">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1D5B0-5F1B-49D7-9EC4-B361001167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B65EE0-D8B4-46AE-84DC-F2A0FF8952F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -410,30 +410,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,33 +442,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="F13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:8">

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B65EE0-D8B4-46AE-84DC-F2A0FF8952F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D56C4B1-F2A6-48C2-933A-F8BD7ADB6B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>dd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddddddd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -476,22 +480,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
+    <row r="17" spans="5:10">
       <c r="H17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
+    <row r="18" spans="5:10">
       <c r="H18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="5:8">
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
         <v>3</v>
       </c>
@@ -499,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
+    <row r="21" spans="5:10">
       <c r="H21" t="s">
         <v>9</v>
       </c>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D56C4B1-F2A6-48C2-933A-F8BD7ADB6B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F63FED5-1C66-4B6D-A788-EB7D35EDA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>ddddddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eeeee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -497,6 +501,9 @@
       <c r="H19" t="s">
         <v>9</v>
       </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F63FED5-1C66-4B6D-A788-EB7D35EDA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C3F074-A1EE-45A2-AF24-81ED7B11FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>eeeee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -421,7 +425,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -488,6 +492,9 @@
       <c r="H17" t="s">
         <v>8</v>
       </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="5:10">
       <c r="H18" t="s">

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C3F074-A1EE-45A2-AF24-81ED7B11FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308B7EF2-6643-427F-8395-8AC4612AE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -425,27 +429,27 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,28 +458,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="F13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -483,9 +487,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="I16" t="s">
         <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="5:10">

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308B7EF2-6643-427F-8395-8AC4612AE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BA3F7-94D2-41BF-A6CD-C4BB693B4603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -499,6 +499,9 @@
       <c r="H17" t="s">
         <v>8</v>
       </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BA3F7-94D2-41BF-A6CD-C4BB693B4603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC97D1-EC11-463E-9D65-43C5EA52720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>e</t>
+    <t>aaaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,7 +429,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
